--- a/Roller Coaster Data.xlsx
+++ b/Roller Coaster Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alec/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Commercial Markets\Analytics\NPA\Staff\Tyler G\Recruiting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09599EC8-D9E6-F24E-9CF1-ADE4CAEC52F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3DCA22-7445-4C7F-8938-A1594A919C11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25860" windowHeight="17540" activeTab="1" xr2:uid="{521E747C-A4D4-48E4-82C4-FE97649A5E2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{521E747C-A4D4-48E4-82C4-FE97649A5E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Coaster_Data" sheetId="1" r:id="rId1"/>
@@ -55,37 +55,13 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="173">
   <si>
@@ -612,10 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,13 +626,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -684,11 +650,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -697,10 +662,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1072,37 +1035,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2B1792-0062-463B-A14C-173704649ABA}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1116,7 @@
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1203,7 +1166,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1253,7 +1216,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1303,7 +1266,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1353,7 +1316,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1403,7 +1366,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1453,7 +1416,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1503,7 +1466,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1553,7 +1516,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1603,7 +1566,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1653,7 +1616,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1703,7 +1666,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1753,7 +1716,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1803,7 +1766,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1853,7 +1816,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1903,7 +1866,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1953,7 +1916,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2003,7 +1966,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2053,7 +2016,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2103,7 +2066,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2153,7 +2116,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2203,7 +2166,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2253,7 +2216,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2303,7 +2266,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2353,7 +2316,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2403,7 +2366,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2453,7 +2416,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2503,7 +2466,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -2553,7 +2516,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2603,7 +2566,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -2653,7 +2616,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2703,7 +2666,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2753,7 +2716,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2803,7 +2766,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2853,7 +2816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -2903,7 +2866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -2953,7 +2916,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3003,7 +2966,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3053,7 +3016,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3103,7 +3066,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3153,7 +3116,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3203,7 +3166,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -3253,7 +3216,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -3303,7 +3266,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -3353,7 +3316,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -3400,7 +3363,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -3450,7 +3413,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -3500,7 +3463,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -3550,7 +3513,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -3600,7 +3563,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -3650,7 +3613,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -3701,13 +3664,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q52" xr:uid="{76A15E02-9D49-9D43-A1FF-3FE13B9027CD}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Horsepower Bay"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
 </worksheet>
@@ -3718,33 +3674,33 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3809,7 +3765,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3874,7 +3830,7 @@
         <v>255214</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -3939,7 +3895,7 @@
         <v>241538</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4004,7 +3960,7 @@
         <v>427305</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4069,7 +4025,7 @@
         <v>314740</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4134,7 +4090,7 @@
         <v>416510</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -4199,7 +4155,7 @@
         <v>624491</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4262,42 +4218,6 @@
       </c>
       <c r="U8">
         <v>5059275</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="6" cm="1">
-        <f t="array" ref="E17:E23">E2:E8*F2:F8</f>
-        <v>41577435</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="6">
-        <v>15759810</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="6">
-        <v>39566356.736000001</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="6">
-        <v>51660680</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="6">
-        <v>23855190</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="6">
-        <v>106863100</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="6">
-        <v>57719949.407999992</v>
       </c>
     </row>
   </sheetData>
@@ -4314,23 +4234,21 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="104" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -4341,7 +4259,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4349,7 +4267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4357,7 +4275,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4368,7 +4286,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4379,7 +4297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4390,7 +4308,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4401,7 +4319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4409,7 +4327,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4417,7 +4335,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4425,7 +4343,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4433,7 +4351,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4441,7 +4359,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4449,7 +4367,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4460,7 +4378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -4471,7 +4389,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4479,7 +4397,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4487,12 +4405,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
@@ -4503,7 +4421,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4511,7 +4429,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -4519,7 +4437,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -4527,7 +4445,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -4535,7 +4453,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -4546,7 +4464,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -4554,7 +4472,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -4565,7 +4483,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -4576,7 +4494,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -4584,7 +4502,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -4592,7 +4510,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -4600,7 +4518,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -4608,7 +4526,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -4616,7 +4534,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -4624,7 +4542,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -4632,7 +4550,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -4640,7 +4558,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -4648,7 +4566,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -4656,7 +4574,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -4664,7 +4582,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -4672,7 +4590,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>93</v>
       </c>
